--- a/scripts/the-open-2018.xlsx
+++ b/scripts/the-open-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{489F2821-B512-1B49-A2F5-9F50BBD73930}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1EE7FB5C-DED6-CE46-B8A8-7497A77D5358}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="20240" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="16660" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player Tiers &amp; Instructions" sheetId="23" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="248">
   <si>
     <t>Tier A</t>
   </si>
@@ -782,6 +782,12 @@
   </si>
   <si>
     <t>Ryan Boudouris</t>
+  </si>
+  <si>
+    <t>Ryan Aguiar</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1430,7 @@
   <dimension ref="B2:T94"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -3964,15 +3970,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A659CBAF-847C-EB43-8647-8F9739783FA6}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4529,7 +4535,7 @@
         <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -4563,6 +4569,55 @@
       </c>
       <c r="C71" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
